--- a/获取数据/list.xlsx
+++ b/获取数据/list.xlsx
@@ -434,10 +434,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1690</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         <v>2.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1080</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4">

--- a/获取数据/list.xlsx
+++ b/获取数据/list.xlsx
@@ -434,10 +434,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="F2" t="n">
-        <v>1870</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="3">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="F3" t="n">
         <v>1070</v>
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.22</v>
+        <v>3.13</v>
       </c>
       <c r="F4" t="n">
-        <v>1220</v>
+        <v>1400</v>
       </c>
     </row>
   </sheetData>

--- a/获取数据/list.xlsx
+++ b/获取数据/list.xlsx
@@ -434,10 +434,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="F2" t="n">
-        <v>1900</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="3">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="F3" t="n">
         <v>1070</v>
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="F4" t="n">
-        <v>1400</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>

--- a/获取数据/list.xlsx
+++ b/获取数据/list.xlsx
@@ -434,10 +434,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.99</v>
+        <v>2.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1950</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="3">
@@ -450,20 +450,20 @@
         <v>2.45</v>
       </c>
       <c r="F3" t="n">
-        <v>1070</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="inlineStr">
         <is>
-          <t>驾驶手套（★） | 深红织物 (破损不堪)</t>
+          <t>P2000 | 电子脉冲 (久经沙场)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.4</v>
+        <v>1.88</v>
       </c>
       <c r="F4" t="n">
-        <v>1420</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/获取数据/list.xlsx
+++ b/获取数据/list.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D1:F4"/>
+  <dimension ref="D1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -434,7 +434,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="F2" t="n">
         <v>1840</v>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="F3" t="n">
         <v>1100</v>
@@ -456,13 +456,26 @@
     <row r="4">
       <c r="D4" t="inlineStr">
         <is>
+          <t>驾驶手套（★） | 深红织物 (破损不堪)</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
           <t>P2000 | 电子脉冲 (久经沙场)</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>1.88</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>1.5</v>
       </c>
     </row>

--- a/获取数据/list.xlsx
+++ b/获取数据/list.xlsx
@@ -434,10 +434,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="F2" t="n">
-        <v>1840</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="3">
@@ -450,20 +450,20 @@
         <v>2.2</v>
       </c>
       <c r="F3" t="n">
-        <v>1100</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="inlineStr">
         <is>
-          <t>驾驶手套（★） | 深红织物 (破损不堪)</t>
+          <t>P2000 | 电子脉冲 (久经沙场)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="F4" t="n">
-        <v>1350</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">

--- a/获取数据/list.xlsx
+++ b/获取数据/list.xlsx
@@ -434,10 +434,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1880</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="3">
@@ -447,10 +447,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="F3" t="n">
-        <v>1110</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4">

--- a/获取数据/list.xlsx
+++ b/获取数据/list.xlsx
@@ -434,10 +434,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="F2" t="n">
-        <v>1910</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="3">
@@ -447,10 +447,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="F3" t="n">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="4">

--- a/获取数据/list.xlsx
+++ b/获取数据/list.xlsx
@@ -434,10 +434,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="F2" t="n">
-        <v>1920</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="3">
@@ -447,23 +447,23 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="F3" t="n">
-        <v>1020</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="inlineStr">
         <is>
-          <t>P2000 | 电子脉冲 (久经沙场)</t>
+          <t>驾驶手套（★） | 深红织物 (破损不堪)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.88</v>
+        <v>3.8</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>1.88</v>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
